--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -1,58 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">Имя пользователя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пароль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hseadmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin_password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwertz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20ФиПЛ-1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>Имя пользователя</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>NewUser</t>
+  </si>
+  <si>
+    <t>Qwertz</t>
+  </si>
+  <si>
+    <t>20ФиПЛ-1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23ФИЛ-1</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>22ФиПЛ-1</t>
+  </si>
+  <si>
+    <t>Pervokursnik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,17 +94,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -109,11 +111,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -381,11 +383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,32 +409,37 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
